--- a/Calibration.xlsx
+++ b/Calibration.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\brigg\Documents\Ras Labs\Code\Ras\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ecb62130970332bc/Documents/Ras/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43AC5E34-9EA6-4082-8192-0300C6A8ECE6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="13_ncr:1_{43AC5E34-9EA6-4082-8192-0300C6A8ECE6}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{D4BA57E0-46EE-401C-A934-129F8132DFB0}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -366,43 +366,43 @@
   <dimension ref="A1:CR30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection sqref="A1:L1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="13.7109375" customWidth="1"/>
-    <col min="2" max="7" width="14.42578125" customWidth="1"/>
-    <col min="8" max="8" width="13.7109375" customWidth="1"/>
-    <col min="9" max="10" width="14.42578125" customWidth="1"/>
-    <col min="11" max="26" width="13.42578125" customWidth="1"/>
-    <col min="27" max="27" width="14.42578125" customWidth="1"/>
-    <col min="28" max="28" width="13.42578125" customWidth="1"/>
-    <col min="29" max="29" width="14.42578125" customWidth="1"/>
-    <col min="30" max="31" width="13.42578125" customWidth="1"/>
-    <col min="32" max="32" width="14.42578125" customWidth="1"/>
-    <col min="33" max="34" width="13.42578125" customWidth="1"/>
-    <col min="35" max="35" width="13.7109375" customWidth="1"/>
-    <col min="36" max="36" width="13.42578125" customWidth="1"/>
-    <col min="37" max="55" width="14.42578125" customWidth="1"/>
-    <col min="56" max="56" width="13.42578125" customWidth="1"/>
-    <col min="57" max="57" width="13.7109375" customWidth="1"/>
-    <col min="58" max="60" width="13.42578125" customWidth="1"/>
-    <col min="61" max="64" width="13.7109375" customWidth="1"/>
-    <col min="65" max="65" width="14.42578125" customWidth="1"/>
-    <col min="66" max="72" width="13.42578125" customWidth="1"/>
-    <col min="73" max="73" width="14.42578125" customWidth="1"/>
-    <col min="74" max="84" width="13.42578125" customWidth="1"/>
-    <col min="85" max="85" width="13.7109375" customWidth="1"/>
-    <col min="86" max="89" width="14.42578125" customWidth="1"/>
-    <col min="90" max="91" width="13.42578125" customWidth="1"/>
-    <col min="92" max="92" width="14.42578125" customWidth="1"/>
-    <col min="93" max="96" width="13.42578125" customWidth="1"/>
+    <col min="1" max="1" width="13.6640625" customWidth="1"/>
+    <col min="2" max="7" width="14.44140625" customWidth="1"/>
+    <col min="8" max="8" width="13.6640625" customWidth="1"/>
+    <col min="9" max="10" width="14.44140625" customWidth="1"/>
+    <col min="11" max="26" width="13.44140625" customWidth="1"/>
+    <col min="27" max="27" width="14.44140625" customWidth="1"/>
+    <col min="28" max="28" width="13.44140625" customWidth="1"/>
+    <col min="29" max="29" width="14.44140625" customWidth="1"/>
+    <col min="30" max="31" width="13.44140625" customWidth="1"/>
+    <col min="32" max="32" width="14.44140625" customWidth="1"/>
+    <col min="33" max="34" width="13.44140625" customWidth="1"/>
+    <col min="35" max="35" width="13.6640625" customWidth="1"/>
+    <col min="36" max="36" width="13.44140625" customWidth="1"/>
+    <col min="37" max="55" width="14.44140625" customWidth="1"/>
+    <col min="56" max="56" width="13.44140625" customWidth="1"/>
+    <col min="57" max="57" width="13.6640625" customWidth="1"/>
+    <col min="58" max="60" width="13.44140625" customWidth="1"/>
+    <col min="61" max="64" width="13.6640625" customWidth="1"/>
+    <col min="65" max="65" width="14.44140625" customWidth="1"/>
+    <col min="66" max="72" width="13.44140625" customWidth="1"/>
+    <col min="73" max="73" width="14.44140625" customWidth="1"/>
+    <col min="74" max="84" width="13.44140625" customWidth="1"/>
+    <col min="85" max="85" width="13.6640625" customWidth="1"/>
+    <col min="86" max="89" width="14.44140625" customWidth="1"/>
+    <col min="90" max="91" width="13.44140625" customWidth="1"/>
+    <col min="92" max="92" width="14.44140625" customWidth="1"/>
+    <col min="93" max="96" width="13.44140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:96">
       <c r="A1">
-        <v>2.6377696551865846</v>
+        <v>2.6377696551865801</v>
       </c>
       <c r="B1">
         <v>2.9931541868956737</v>
